--- a/info/metricas/NN/TANH/NN9.xlsx
+++ b/info/metricas/NN/TANH/NN9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MeanAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MedianAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>MaxError</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MeanAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MedianAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>varianzaExplicada</t>
@@ -471,10 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -485,34 +495,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1980.352294921875</v>
+        <v>0.8160837518425043</v>
       </c>
       <c r="C2" t="n">
-        <v>68753.28049273582</v>
+        <v>68389.47666723137</v>
       </c>
       <c r="D2" t="n">
-        <v>174.1818658599733</v>
+        <v>174.8351167697741</v>
       </c>
       <c r="E2" t="n">
-        <v>885540.6060321045</v>
+        <v>108.2717456054687</v>
       </c>
       <c r="F2" t="n">
-        <v>104.1631677246094</v>
+        <v>888861.7336575317</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8173776422276049</v>
+        <v>1988.12646484375</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8174248776126385</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>0.8161764676943482</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.26040187538537e+16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-90139.24808402793</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
@@ -521,34 +537,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1990.093872070312</v>
+        <v>0.7960980296063638</v>
       </c>
       <c r="C3" t="n">
-        <v>78014.11054068133</v>
+        <v>71713.54764987784</v>
       </c>
       <c r="D3" t="n">
-        <v>180.1592084769092</v>
+        <v>174.5202260985176</v>
       </c>
       <c r="E3" t="n">
-        <v>915929.4158966064</v>
+        <v>99.53164306640622</v>
       </c>
       <c r="F3" t="n">
-        <v>105.0287478637695</v>
+        <v>887260.8294848632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7925498048584289</v>
+        <v>2013.33740234375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7925654379436775</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>0.7962432909989993</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.593976277485101e+16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-93314.86770629324</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
@@ -557,34 +579,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1787.8447265625</v>
+        <v>0.7947125408096434</v>
       </c>
       <c r="C4" t="n">
-        <v>74425.2571161048</v>
+        <v>73543.19215709037</v>
       </c>
       <c r="D4" t="n">
-        <v>177.303960344148</v>
+        <v>173.0990016865824</v>
       </c>
       <c r="E4" t="n">
-        <v>901413.3343896484</v>
+        <v>103.139137878418</v>
       </c>
       <c r="F4" t="n">
-        <v>106.6862805175781</v>
+        <v>880035.3245745848</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8055351334560996</v>
+        <v>2019.422275390625</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8055356399358783</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>0.7947210957392457</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.991062529939826e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-93990.56538391874</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
@@ -593,34 +621,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1977.03759765625</v>
+        <v>0.8243310331664041</v>
       </c>
       <c r="C5" t="n">
-        <v>72831.6353864946</v>
+        <v>69269.07004247518</v>
       </c>
       <c r="D5" t="n">
-        <v>173.5796656530397</v>
+        <v>173.7317369383325</v>
       </c>
       <c r="E5" t="n">
-        <v>882479.0201800537</v>
+        <v>104.6906307983398</v>
       </c>
       <c r="F5" t="n">
-        <v>103.7428747558594</v>
+        <v>883252.1505944824</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8132106511264858</v>
+        <v>2003.883666992188</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8132489164868866</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>0.8250020802142053</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.204405306657518e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-74764.01442490797</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
@@ -629,34 +663,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2006.743408203125</v>
+        <v>0.8067138910728782</v>
       </c>
       <c r="C6" t="n">
-        <v>68709.75318875854</v>
+        <v>70965.39540346978</v>
       </c>
       <c r="D6" t="n">
-        <v>169.7891217869547</v>
+        <v>173.4734726949989</v>
       </c>
       <c r="E6" t="n">
-        <v>863038.1060430908</v>
+        <v>105.357177734375</v>
       </c>
       <c r="F6" t="n">
-        <v>101.0167950439453</v>
+        <v>881765.6617086792</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8174004356092213</v>
+        <v>1915.172607421875</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8184777726355383</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>0.8069079514750651</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.294155947707898e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-99947.04594982121</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
@@ -665,34 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2023.493286132812</v>
+        <v>0.8054091252153169</v>
       </c>
       <c r="C7" t="n">
-        <v>75078.36393370714</v>
+        <v>72598.86983494711</v>
       </c>
       <c r="D7" t="n">
-        <v>178.5000005342227</v>
+        <v>176.7417385697351</v>
       </c>
       <c r="E7" t="n">
-        <v>907315.5027154541</v>
+        <v>106.4883984375</v>
       </c>
       <c r="F7" t="n">
-        <v>107.6614697265625</v>
+        <v>898378.2571499634</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8058780620317185</v>
+        <v>1798.6318359375</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8061154299217054</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>0.805691606718667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.33385549225446e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-118943.2338398495</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
@@ -701,34 +747,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1938.682739257812</v>
+        <v>0.8107257156308891</v>
       </c>
       <c r="C8" t="n">
-        <v>65369.53807265264</v>
+        <v>71835.97264842906</v>
       </c>
       <c r="D8" t="n">
-        <v>171.2116713021605</v>
+        <v>173.9604067073374</v>
       </c>
       <c r="E8" t="n">
-        <v>870268.9252288819</v>
+        <v>101.3842620849609</v>
       </c>
       <c r="F8" t="n">
-        <v>106.1518347167969</v>
+        <v>884240.747293396</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8102468597612821</v>
+        <v>2009.087036132812</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8102474994029822</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>0.8108040823836147</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.943784806095795e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-90644.2933079262</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
@@ -737,34 +789,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2011.743530273438</v>
+        <v>0.8168860728372033</v>
       </c>
       <c r="C9" t="n">
-        <v>70692.64810888558</v>
+        <v>69114.7375308273</v>
       </c>
       <c r="D9" t="n">
-        <v>174.9435105750403</v>
+        <v>172.9354658698323</v>
       </c>
       <c r="E9" t="n">
-        <v>889237.8642529297</v>
+        <v>101.4720916748047</v>
       </c>
       <c r="F9" t="n">
-        <v>106.6405377197266</v>
+        <v>879030.9730163574</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7999447461180034</v>
+        <v>2039.547729492188</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7999459875115533</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>0.8168978268943532</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.361268959650934e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-69383.88925172141</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
@@ -773,34 +831,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2009.7822265625</v>
+        <v>0.8001140092768806</v>
       </c>
       <c r="C10" t="n">
-        <v>72417.7450103594</v>
+        <v>75648.26997609834</v>
       </c>
       <c r="D10" t="n">
-        <v>177.8428630377218</v>
+        <v>181.1752609699016</v>
       </c>
       <c r="E10" t="n">
-        <v>903975.2728207398</v>
+        <v>107.2948217773437</v>
       </c>
       <c r="F10" t="n">
-        <v>103.6202581787109</v>
+        <v>920913.8515100097</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8027093957672233</v>
+        <v>2022.375366210938</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8027096191663678</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>0.8001580768017736</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.627103879464584e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-88280.08675987707</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
@@ -809,34 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2008.742954101562</v>
+        <v>0.807724833476869</v>
       </c>
       <c r="C11" t="n">
-        <v>67634.58358044981</v>
+        <v>70291.58453716902</v>
       </c>
       <c r="D11" t="n">
-        <v>171.6554744794757</v>
+        <v>173.8305511218845</v>
       </c>
       <c r="E11" t="n">
-        <v>872524.7767791748</v>
+        <v>104.5772845458984</v>
       </c>
       <c r="F11" t="n">
-        <v>103.2667553710937</v>
+        <v>883580.691352539</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8140582844431483</v>
+        <v>1976.204345703125</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8143968078530173</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>0.8080470079851492</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.01851723111895e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-83378.44998889724</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>TANH9</t>
         </is>
       </c>
     </row>
